--- a/data/trans_orig/P1424_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5562CBF1-8740-459D-8816-A8AE568DF53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8ECB26-F61A-4549-A707-E86261713036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFBA8B14-D9F9-4D01-9A5A-C64F5BD3F481}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E54867E0-D7E7-46ED-8612-01C6A1D7AF57}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="262">
   <si>
     <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -468,247 +468,259 @@
     <t>2,31%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
   <si>
     <t>6,38%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>96,98%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>92,17%</t>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
   </si>
   <si>
     <t>10,73%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>89,27%</t>
   </si>
   <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>94,91%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>90,4%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>3,67%</t>
@@ -717,28 +729,28 @@
     <t>2,6%</t>
   </si>
   <si>
-    <t>4,96%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>9,82%</t>
   </si>
   <si>
-    <t>11,7%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>96,33%</t>
   </si>
   <si>
-    <t>95,04%</t>
+    <t>94,99%</t>
   </si>
   <si>
     <t>97,4%</t>
@@ -747,64 +759,70 @@
     <t>90,18%</t>
   </si>
   <si>
-    <t>88,3%</t>
+    <t>88,24%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>8,99%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>91,01%</t>
   </si>
   <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>93,83%</t>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F1EA3-29F7-400F-9C5E-8D2B6077600E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E33C14-4390-4389-98F0-4A412F4E09D6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,7 +2453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F81FC20-71A2-4380-B283-D4BE34234EAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDE4E4-6A6B-4020-B267-4B175B117FFF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2577,10 +2595,10 @@
         <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2592,10 +2610,10 @@
         <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2628,13 @@
         <v>368968</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -2625,13 +2643,13 @@
         <v>332323</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -2643,10 +2661,10 @@
         <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2732,13 @@
         <v>8808</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2729,13 +2747,13 @@
         <v>31221</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -2744,13 +2762,13 @@
         <v>40029</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2783,13 @@
         <v>419588</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -2780,13 +2798,13 @@
         <v>467356</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -2795,10 +2813,10 @@
         <v>886944</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>173</v>
@@ -2887,10 +2905,10 @@
         <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -2899,13 +2917,13 @@
         <v>60364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2938,13 @@
         <v>530301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H11" s="7">
         <v>792</v>
@@ -2935,13 +2953,13 @@
         <v>547324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="M11" s="7">
         <v>1314</v>
@@ -2950,13 +2968,13 @@
         <v>1077626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3042,13 @@
         <v>36548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -3039,13 +3057,13 @@
         <v>80133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>156</v>
@@ -3054,13 +3072,13 @@
         <v>116682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,13 +3093,13 @@
         <v>686316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H14" s="7">
         <v>1018</v>
@@ -3090,13 +3108,13 @@
         <v>666721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>1648</v>
@@ -3105,13 +3123,13 @@
         <v>1353036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3197,13 @@
         <v>41910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -3194,13 +3212,13 @@
         <v>72467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -3209,13 +3227,13 @@
         <v>114377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3248,13 @@
         <v>556275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7">
         <v>881</v>
@@ -3245,13 +3263,13 @@
         <v>520336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7">
         <v>1499</v>
@@ -3260,13 +3278,13 @@
         <v>1076611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3352,13 @@
         <v>25562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -3349,13 +3367,13 @@
         <v>100722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>216</v>
@@ -3364,13 +3382,13 @@
         <v>126285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3403,13 @@
         <v>671415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H20" s="7">
         <v>1531</v>
@@ -3400,13 +3418,13 @@
         <v>925211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
         <v>2518</v>
@@ -3415,13 +3433,13 @@
         <v>1596625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>147274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H22" s="7">
         <v>505</v>
@@ -3504,28 +3522,28 @@
         <v>341807</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
       </c>
       <c r="N22" s="7">
-        <v>489081</v>
+        <v>489082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3540,13 +3558,13 @@
         <v>3232863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H23" s="7">
         <v>4852</v>
@@ -3555,13 +3573,13 @@
         <v>3459271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M23" s="7">
         <v>8070</v>
@@ -3570,13 +3588,13 @@
         <v>6692134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>260</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3636,7 @@
         <v>8728</v>
       </c>
       <c r="N24" s="7">
-        <v>7181215</v>
+        <v>7181216</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P1424_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1424_2015-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF8ECB26-F61A-4549-A707-E86261713036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D19D04-40AC-4B96-98FE-CD29746A21C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E54867E0-D7E7-46ED-8612-01C6A1D7AF57}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD837F0D-7AAA-4235-B4CD-032F5913F0A7}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="262">
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2015 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="264">
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -78,25 +78,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,67%</t>
+    <t>1,6%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,7 +105,7 @@
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,33%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -114,19 +114,19 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>98,62%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -141,103 +141,109 @@
     <t>0,5%</t>
   </si>
   <si>
-    <t>2,22%</t>
+    <t>2,5%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,09%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -246,55 +252,55 @@
     <t>2,76%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>94,61%</t>
   </si>
   <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -303,204 +309,216 @@
     <t>3,43%</t>
   </si>
   <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>3,17%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>96,83%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de ansiedad en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
     <t>93,0%</t>
   </si>
   <si>
@@ -621,9 +639,6 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
     <t>10,73%</t>
   </si>
   <si>
@@ -645,9 +660,6 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>92,91%</t>
-  </si>
-  <si>
     <t>96,52%</t>
   </si>
   <si>
@@ -774,9 +786,6 @@
     <t>4,36%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
     <t>5,17%</t>
   </si>
   <si>
@@ -802,9 +811,6 @@
   </si>
   <si>
     <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
   </si>
   <si>
     <t>91,01%</t>
@@ -1234,7 +1240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E33C14-4390-4389-98F0-4A412F4E09D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747C20BD-9034-47D0-A56C-E6AD1FDDBA71}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,13 +1704,13 @@
         <v>47286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,13 +1725,13 @@
         <v>658041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>627</v>
@@ -1734,13 +1740,13 @@
         <v>625156</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1254</v>
@@ -1749,13 +1755,13 @@
         <v>1283197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,7 +1817,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1823,13 +1829,13 @@
         <v>17837</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -1838,13 +1844,13 @@
         <v>52020</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -1853,13 +1859,13 @@
         <v>69857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1880,13 @@
         <v>628211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>554</v>
@@ -1889,13 +1895,13 @@
         <v>597057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1119</v>
@@ -1904,13 +1910,13 @@
         <v>1225268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,7 +1972,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1978,13 +1984,13 @@
         <v>16398</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -1993,13 +1999,13 @@
         <v>52421</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2008,13 +2014,13 @@
         <v>68818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,13 +2035,13 @@
         <v>461520</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>386</v>
@@ -2044,13 +2050,13 @@
         <v>444428</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>796</v>
@@ -2059,13 +2065,13 @@
         <v>905949</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,7 +2127,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2133,13 +2139,13 @@
         <v>10472</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -2148,13 +2154,13 @@
         <v>70649</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>72</v>
@@ -2163,13 +2169,13 @@
         <v>81122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,13 +2190,13 @@
         <v>580856</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>594</v>
@@ -2199,13 +2205,13 @@
         <v>707282</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1210</v>
@@ -2214,13 +2220,13 @@
         <v>1288137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,13 +2294,13 @@
         <v>64676</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>214</v>
@@ -2303,13 +2309,13 @@
         <v>232305</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -2318,13 +2324,13 @@
         <v>296981</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2345,13 @@
         <v>3329674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>3124</v>
@@ -2354,13 +2360,13 @@
         <v>3312237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>6293</v>
@@ -2369,13 +2375,13 @@
         <v>6641911</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2453,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEDE4E4-6A6B-4020-B267-4B175B117FFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AEC437-DF1E-4B10-A8F9-0ABF6698FBB4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,7 +2476,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2577,13 +2583,13 @@
         <v>8711</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -2592,13 +2598,13 @@
         <v>22634</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -2607,13 +2613,13 @@
         <v>31345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2634,13 @@
         <v>368968</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>196</v>
@@ -2643,13 +2649,13 @@
         <v>332323</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="M5" s="7">
         <v>363</v>
@@ -2658,13 +2664,13 @@
         <v>701291</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2738,13 @@
         <v>8808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -2747,13 +2753,13 @@
         <v>31221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -2762,13 +2768,13 @@
         <v>40029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2789,13 @@
         <v>419588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -2798,13 +2804,13 @@
         <v>467356</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>728</v>
@@ -2813,13 +2819,13 @@
         <v>886944</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2893,13 @@
         <v>25735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -2902,13 +2908,13 @@
         <v>34629</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>75</v>
@@ -2917,13 +2923,13 @@
         <v>60364</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2944,13 @@
         <v>530301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>792</v>
@@ -2953,13 +2959,13 @@
         <v>547324</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1314</v>
@@ -2968,13 +2974,13 @@
         <v>1077626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,7 +3036,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3042,13 +3048,13 @@
         <v>36548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="H13" s="7">
         <v>122</v>
@@ -3057,13 +3063,13 @@
         <v>80133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>156</v>
@@ -3072,13 +3078,13 @@
         <v>116682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3099,13 @@
         <v>686316</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>1018</v>
@@ -3108,13 +3114,13 @@
         <v>666721</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>1648</v>
@@ -3123,13 +3129,13 @@
         <v>1353036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,7 +3191,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3197,13 +3203,13 @@
         <v>41910</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>118</v>
@@ -3212,13 +3218,13 @@
         <v>72467</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>161</v>
@@ -3227,13 +3233,13 @@
         <v>114377</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3254,13 @@
         <v>556275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>881</v>
@@ -3263,13 +3269,13 @@
         <v>520336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>1499</v>
@@ -3278,13 +3284,13 @@
         <v>1076611</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3346,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3358,13 @@
         <v>25562</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>176</v>
@@ -3367,13 +3373,13 @@
         <v>100722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M19" s="7">
         <v>216</v>
@@ -3382,13 +3388,13 @@
         <v>126285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3409,13 @@
         <v>671415</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H20" s="7">
         <v>1531</v>
@@ -3418,13 +3424,13 @@
         <v>925211</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>2518</v>
@@ -3433,13 +3439,13 @@
         <v>1596625</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3513,13 @@
         <v>147274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>505</v>
@@ -3522,13 +3528,13 @@
         <v>341807</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M22" s="7">
         <v>658</v>
@@ -3537,13 +3543,13 @@
         <v>489082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3564,13 @@
         <v>3232863</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="H23" s="7">
         <v>4852</v>
@@ -3573,13 +3579,13 @@
         <v>3459271</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M23" s="7">
         <v>8070</v>
@@ -3588,13 +3594,13 @@
         <v>6692134</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,7 +3656,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
